--- a/data1/Supplementary Data/Supplementary Data 2.xlsx
+++ b/data1/Supplementary Data/Supplementary Data 2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\permafrost\Doc\英文稿\NM稿件_2023.11.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\permafrost\data1\Supplementary Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="0" windowWidth="27855" windowHeight="11805"/>
+    <workbookView xWindow="4815" yWindow="0" windowWidth="27855" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Selected_KOs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="353">
   <si>
     <t>Category</t>
   </si>
@@ -848,10 +848,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>cysJ</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>cysN</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1019,9 +1015,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>K00380</t>
-  </si>
-  <si>
     <t>K00956</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1165,6 +1158,10 @@
   </si>
   <si>
     <t>sulfur reductase</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dissimilatory sulfite reductase</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2149,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3788,7 +3785,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B117" t="s">
         <v>222</v>
@@ -3802,220 +3799,220 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B118" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C118" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D118" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
+        <v>289</v>
+      </c>
+      <c r="B119" t="s">
         <v>290</v>
-      </c>
-      <c r="B119" t="s">
-        <v>291</v>
       </c>
       <c r="C119" t="s">
         <v>270</v>
       </c>
       <c r="D119" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
+        <v>289</v>
+      </c>
+      <c r="B120" t="s">
         <v>290</v>
       </c>
-      <c r="B120" t="s">
-        <v>291</v>
-      </c>
       <c r="C120" t="s">
+        <v>311</v>
+      </c>
+      <c r="D120" t="s">
         <v>312</v>
-      </c>
-      <c r="D120" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
+        <v>289</v>
+      </c>
+      <c r="B121" t="s">
         <v>290</v>
-      </c>
-      <c r="B121" t="s">
-        <v>291</v>
       </c>
       <c r="C121" t="s">
         <v>271</v>
       </c>
       <c r="D121" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
+        <v>289</v>
+      </c>
+      <c r="B122" t="s">
         <v>290</v>
-      </c>
-      <c r="B122" t="s">
-        <v>291</v>
       </c>
       <c r="C122" t="s">
         <v>272</v>
       </c>
       <c r="D122" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B123" t="s">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="C123" t="s">
-        <v>273</v>
-      </c>
-      <c r="D123" t="s">
-        <v>316</v>
+        <v>266</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B124" t="s">
         <v>222</v>
       </c>
       <c r="C124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B125" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="C125" t="s">
-        <v>267</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>302</v>
+        <v>261</v>
+      </c>
+      <c r="D125" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B126" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="C126" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D126" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B127" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="C127" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D127" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B128" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C128" t="s">
-        <v>274</v>
-      </c>
-      <c r="D128" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B129" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C129" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B130" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C130" t="s">
-        <v>319</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>221</v>
+        <v>269</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B131" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>339</v>
+        <v>288</v>
+      </c>
+      <c r="D131" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B132" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="C132" t="s">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="D132" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B133" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C133" t="s">
         <v>347</v>
@@ -4026,10 +4023,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B134" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C134" t="s">
         <v>349</v>
@@ -4040,27 +4037,27 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B135" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="C135" t="s">
-        <v>351</v>
+        <v>279</v>
       </c>
       <c r="D135" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B136" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C136" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="D136" t="s">
         <v>336</v>
@@ -4068,24 +4065,24 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B137" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C137" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D137" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B138" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C138" t="s">
         <v>343</v>
@@ -4096,108 +4093,108 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B139" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C139" t="s">
-        <v>345</v>
-      </c>
-      <c r="D139" t="s">
-        <v>346</v>
+        <v>329</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B140" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C140" t="s">
-        <v>331</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
+      </c>
+      <c r="D140" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B141" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C141" t="s">
+        <v>327</v>
+      </c>
+      <c r="D141" t="s">
         <v>326</v>
-      </c>
-      <c r="D141" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B142" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C142" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="D142" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B143" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C143" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D143" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B144" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C144" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D144" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B145" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C145" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="D145" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C146" t="s">
         <v>282</v>
@@ -4208,24 +4205,24 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B147" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C147" t="s">
         <v>283</v>
       </c>
       <c r="D147" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C148" t="s">
         <v>284</v>
@@ -4236,10 +4233,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B149" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C149" t="s">
         <v>285</v>
@@ -4250,24 +4247,24 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C150" t="s">
         <v>286</v>
       </c>
       <c r="D150" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C151" t="s">
         <v>287</v>
@@ -4278,49 +4275,49 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B152" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C152" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D152" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C153" t="s">
         <v>275</v>
       </c>
       <c r="D153" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C154" t="s">
         <v>276</v>
       </c>
       <c r="D154" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B155" t="s">
         <v>293</v>
@@ -4328,50 +4325,50 @@
       <c r="C155" t="s">
         <v>277</v>
       </c>
-      <c r="D155" t="s">
-        <v>322</v>
+      <c r="D155" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B156" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C156" t="s">
-        <v>278</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>225</v>
+        <v>321</v>
+      </c>
+      <c r="D156" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B157" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C157" t="s">
+        <v>278</v>
+      </c>
+      <c r="D157" t="s">
         <v>323</v>
-      </c>
-      <c r="D157" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="B158" t="s">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="C158" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="D158" t="s">
-        <v>325</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4382,10 +4379,10 @@
         <v>227</v>
       </c>
       <c r="C159" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D159" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4393,13 +4390,13 @@
         <v>226</v>
       </c>
       <c r="B160" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C160" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D160" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4407,27 +4404,27 @@
         <v>226</v>
       </c>
       <c r="B161" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C161" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D161" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B162" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C162" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D162" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4438,10 +4435,10 @@
         <v>238</v>
       </c>
       <c r="C163" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D163" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4452,24 +4449,24 @@
         <v>238</v>
       </c>
       <c r="C164" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D164" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B165" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C165" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D165" t="s">
-        <v>244</v>
+        <v>103</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4480,10 +4477,10 @@
         <v>246</v>
       </c>
       <c r="C166" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D166" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4494,10 +4491,10 @@
         <v>246</v>
       </c>
       <c r="C167" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D167" t="s">
-        <v>104</v>
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4508,10 +4505,10 @@
         <v>246</v>
       </c>
       <c r="C168" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D168" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4522,10 +4519,10 @@
         <v>246</v>
       </c>
       <c r="C169" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D169" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4536,10 +4533,10 @@
         <v>246</v>
       </c>
       <c r="C170" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D170" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4550,10 +4547,10 @@
         <v>246</v>
       </c>
       <c r="C171" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D171" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4564,42 +4561,28 @@
         <v>246</v>
       </c>
       <c r="C172" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D172" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>245</v>
-      </c>
-      <c r="B173" t="s">
-        <v>246</v>
-      </c>
-      <c r="C173" t="s">
-        <v>259</v>
-      </c>
-      <c r="D173" t="s">
         <v>260</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D124:D125">
+  <conditionalFormatting sqref="D123:D124">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Present">
-      <formula>NOT(ISERROR(SEARCH("Present", D124)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Present", D123)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Absent">
-      <formula>NOT(ISERROR(SEARCH("Absent", D124)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Absent", D123)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D129:D130">
+  <conditionalFormatting sqref="D128:D129">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Present">
-      <formula>NOT(ISERROR(SEARCH("Present", D129)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Present", D128)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Absent">
-      <formula>NOT(ISERROR(SEARCH("Absent", D129)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Absent", D128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
